--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -446,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -540,6 +540,58 @@
         <v>12</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>45140.45972222222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21992193853</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
+        <v>45140.45972222222</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>21992193853</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -446,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>21966652864</v>
+        <v>21992193853</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>45140.46003472222</v>
+        <v>45140.45972222222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>21966652864</v>
+        <v>21992193853</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -537,58 +537,6 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>45140.45972222222</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>21992193853</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>45140.45972222222</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>21992193853</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
